--- a/results/优化结果汇总.xlsx
+++ b/results/优化结果汇总.xlsx
@@ -459,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -867,45 +867,46 @@
       </c>
     </row>
     <row r="24"/>
-    <row r="25">
-      <c r="A25" s="1" t="inlineStr">
+    <row r="25"/>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
         <is>
           <t>📋 说明</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="4" t="inlineStr">
-        <is>
-          <t>• DH参数：机器人正向运动学标定参数</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="4" t="inlineStr">
         <is>
-          <t>• TCP位姿：工具中心点相对法兰坐标系的变换</t>
+          <t>• DH参数：机器人正向运动学标定参数</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="4" t="inlineStr">
         <is>
-          <t>• 基座位姿：激光跟踪仪与机器人基座间的变换关系</t>
+          <t>• TCP位姿：工具中心点相对法兰坐标系的变换</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="4" t="inlineStr">
         <is>
+          <t>• 基座位姿：激光跟踪仪与机器人基座间的变换关系</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="4" t="inlineStr">
+        <is>
           <t>• 详细误差分析请查看'优化前后详细对比'工作表</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="A30:E30"/>
     <mergeCell ref="A29:E29"/>
-    <mergeCell ref="A26:E26"/>
     <mergeCell ref="A28:E28"/>
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="A1:E1"/>
